--- a/Homework4/blackjack.xlsx
+++ b/Homework4/blackjack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennisgeorge/Desktop/College/Senior/Spring/CS481/Homework4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\College\Senior\Spring\CS481\Homework4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CECE112-6655-FE42-9DE0-779B0A5658A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CB4908-1198-45F0-B2D1-78B70AFA2A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{6140BA41-63EA-43E6-9826-E73D2C488C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6140BA41-63EA-43E6-9826-E73D2C488C20}"/>
   </bookViews>
   <sheets>
     <sheet name="P(DEALER)" sheetId="1" r:id="rId1"/>
@@ -549,16 +549,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA4D05-6097-4DB6-A38E-BE990253AAF6}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AD30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="32" max="32" width="11.5" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
       </c>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3358,16 +3358,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEE9324-4C99-2743-AB55-B7DE2EE553F9}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3551,7 +3549,7 @@
         <v>0.28159000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>0.39446999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -3735,7 +3733,7 @@
         <v>0.41639999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -3827,7 +3825,7 @@
         <v>0.42315000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3919,7 +3917,7 @@
         <v>0.26230999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>0.24474000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>0.22842999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -4195,7 +4193,7 @@
         <v>0.21210999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -4287,7 +4285,7 @@
         <v>0.21210999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -4379,7 +4377,7 @@
         <v>0.48266999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -4471,7 +4469,7 @@
         <v>0.51961999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>0.55393999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -4655,7 +4653,7 @@
         <v>0.58579999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -4747,7 +4745,7 @@
         <v>0.61538000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -4839,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -5023,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -5115,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -5207,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -5299,7 +5297,7 @@
         <v>0.24496000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -5391,7 +5389,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -5483,7 +5481,7 @@
         <v>0.29994999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -5575,7 +5573,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5667,7 +5665,7 @@
         <v>0.35411999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -5759,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -5943,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -6035,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
